--- a/FINAL DATA RAT KOP 2021.xlsx
+++ b/FINAL DATA RAT KOP 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\WEB\web rat 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9C556-C247-4F3A-BA7A-C1E6973B9E45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CF86A-EAED-4A4C-B97B-1A79E7892B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="621" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="621" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA ANGGOTA KOPERASI ALL" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="login form mtw" sheetId="14" r:id="rId5"/>
     <sheet name="login form pensiunan" sheetId="16" r:id="rId6"/>
     <sheet name="Form Login Non" sheetId="15" r:id="rId7"/>
+    <sheet name="form validas" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DATA ANGGOTA KOPERASI ALL'!$A$2:$G$466</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6962" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8965" uniqueCount="1871">
   <si>
     <t>No</t>
   </si>
@@ -5670,6 +5671,21 @@
   </si>
   <si>
     <t xml:space="preserve"> ) || //</t>
+  </si>
+  <si>
+    <t>if (inputUsername.value === "9115238ZJY") {inputNama.value = "Herwin Januardi";localStorage.setItem("nama", inputNama.value);}</t>
+  </si>
+  <si>
+    <t>else if</t>
+  </si>
+  <si>
+    <t>(inputUsername.value === "</t>
+  </si>
+  <si>
+    <t>";localStorage.setItem("nama", inputNama.value);}</t>
+  </si>
+  <si>
+    <t>"){inputNama.value = "</t>
   </si>
 </sst>
 </file>
@@ -5809,7 +5825,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5882,6 +5898,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma [0] 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5898,163 +5915,7 @@
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <condense val="0"/>
@@ -16258,13 +16119,13 @@
   </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B441:B451">
-    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="57" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16275,8 +16136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C287"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22031,19 +21892,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C287">
-    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C287">
-    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B276">
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23550,19 +23411,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:C74">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C74">
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25708,13 +25569,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C106">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C106">
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B106">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31484,34 +31345,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B287">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B276">
-    <cfRule type="duplicateValues" dxfId="45" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F287">
-    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F287">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D287">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D276">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D289">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33289,22 +33150,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F73">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F73">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I73">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I69">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B73">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33314,8 +33175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9250D4B3-5007-4A68-BCCB-E5BA2CB53B88}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36393,29 +36254,6654 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A106:A286">
-    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A275">
-    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I105">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:I105">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B105">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F105">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F105">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F318524E-302C-40C8-BC02-33B6DF003569}">
+  <dimension ref="A1:H288"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F288"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H118" s="20" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H134" s="20" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F138" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E156" s="20" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H156" s="20" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H157" s="25" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H158" s="19" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H160" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F161" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H161" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H162" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F165" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H165" s="19" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H169" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H170" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F171" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H171" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F172" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H172" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F173" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H173" s="22" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H174" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H175" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F176" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H176" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F177" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F178" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F179" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D180" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F180" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H180" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F181" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H181" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D182" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F182" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H183" s="19" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F184" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H184" s="19" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F185" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H185" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F186" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H186" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F187" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H187" s="19" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E188" s="20" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F188" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H188" s="20" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F189" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H189" s="20" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F190" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H190" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D191" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="F191" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H192" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D193" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F193" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H193" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D194" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="F194" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H194" s="25" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D195" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E195" s="19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H195" s="19" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F196" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H196" s="19" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D197" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H198" s="20" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E199" s="20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F199" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H199" s="20" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F200" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H200" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F201" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F202" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H202" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E203" s="19" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F203" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H203" s="19" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D204" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F204" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H204" s="19" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E205" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F205" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H205" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F206" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H206" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E207" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="F207" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H207" s="24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F208" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H208" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F209" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H209" s="22" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F210" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H210" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E211" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F211" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H211" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F212" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H212" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E213" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F213" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H213" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E214" s="20" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F214" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H214" s="20" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D215" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E215" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H215" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D216" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E216" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F216" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H216" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D217" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E217" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F217" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H217" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D218" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F218" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H218" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D219" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E219" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F219" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H219" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F220" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H220" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D221" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E221" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F221" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H221" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H222" s="19" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F223" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H223" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F224" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H224" s="19" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E225" s="19" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F225" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H225" s="19" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E226" s="19" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F226" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H226" s="19" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F227" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H227" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E228" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H228" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H229" s="20" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E230" s="19" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F230" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H230" s="19" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F231" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H231" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E232" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F232" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H232" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D233" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F233" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H233" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F234" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H234" s="19" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D235" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F235" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H235" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F236" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H236" s="19" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F237" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H237" s="19" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E238" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F238" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H238" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D239" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E239" s="19" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F239" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H239" s="19" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D240" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F240" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H240" s="19" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D241" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E241" s="19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F241" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H241" s="19" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F242" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H242" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D243" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E243" s="19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F243" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H243" s="19" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D244" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F244" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H244" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D245" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E245" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F245" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H245" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="D246" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E246" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F246" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H246" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D247" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E247" s="19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F247" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H247" s="19" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D248" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F248" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H248" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D249" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E249" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F249" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H249" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D250" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="F250" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H250" s="24" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D251" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E251" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F251" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H251" s="19" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D252" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F252" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H252" s="19" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D253" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E253" s="19" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F253" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H253" s="19" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D254" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E254" s="19" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F254" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H254" s="19" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D255" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E255" s="19" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F255" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H255" s="19" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D256" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E256" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F256" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H256" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D257" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E257" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F257" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H257" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D258" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E258" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F258" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H258" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D259" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E259" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="F259" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H259" s="23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D260" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E260" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F260" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H260" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D261" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E261" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F261" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H261" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D262" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E262" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F262" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H262" s="19" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D263" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E263" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F263" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H263" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D264" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F264" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H264" s="19" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D265" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E265" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F265" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H265" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D266" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F266" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H266" s="19" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D267" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E267" s="19" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F267" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H267" s="19" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D268" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E268" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F268" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H268" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D269" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E269" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F269" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H269" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D270" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E270" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F270" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H270" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="D271" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E271" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F271" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H271" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D272" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E272" s="19" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F272" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H272" s="19" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D273" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E273" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F273" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H273" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D274" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F274" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H274" s="19" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D275" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E275" s="19" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F275" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H275" s="19" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D276" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E276" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F276" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H276" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E277" s="19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F277" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H277" s="19" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D278" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E278" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F278" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H278" s="19" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D279" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E279" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F279" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H279" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D280" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E280" s="20" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F280" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H280" s="20" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D281" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E281" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F281" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H281" s="19" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D282" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E282" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F282" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H282" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D283" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E283" s="19" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F283" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H283" s="19" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D284" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E284" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H284" s="25" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E285" s="19" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F285" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H285" s="19" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E286" s="19" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F286" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H286" s="19" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D287" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E287" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F287" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H287" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D288" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E288" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H288" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H3:H288">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H288">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E288">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E288">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C288">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271:C277">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FINAL DATA RAT KOP 2021.xlsx
+++ b/FINAL DATA RAT KOP 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\WEB\web rat 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CF86A-EAED-4A4C-B97B-1A79E7892B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF4A4C4-8364-49E2-939F-04F64DD7B420}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="621" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8965" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="1871">
   <si>
     <t>No</t>
   </si>
@@ -5915,7 +5915,223 @@
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -16119,13 +16335,13 @@
   </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B441:B451">
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21892,19 +22108,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C287">
-    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C287">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B276">
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21914,7 +22130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B74"/>
     </sheetView>
   </sheetViews>
@@ -23411,19 +23627,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:C74">
-    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C74">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23433,8 +23649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C106"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25569,13 +25785,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C106">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C106">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B106">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31345,34 +31561,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B287">
-    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B276">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F287">
-    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F287">
-    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D287">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D276">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D289">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33150,22 +33366,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F73">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F73">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I73">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I69">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B73">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36254,28 +36470,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A106:A286">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A275">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I105">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:I105">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B105">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F105">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F105">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36283,10 +36499,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F318524E-302C-40C8-BC02-33B6DF003569}">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F288"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="F468" sqref="A364:F468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42882,23 +43098,3622 @@
         <v>14</v>
       </c>
     </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D290" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E290" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F290" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H290" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D291" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E291" s="19" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F291" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D292" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E292" s="19" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F292" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D293" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E293" s="19" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F293" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D294" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E294" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F294" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D295" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E295" s="19" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F295" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="D296" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E296" s="19" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F296" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D297" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E297" s="19" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F297" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D298" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E298" s="19" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F298" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D299" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E299" s="19" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F299" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D300" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E300" s="19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F300" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D301" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E301" s="19" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F301" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D302" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E302" s="19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F302" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D303" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E303" s="19" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F303" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D304" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E304" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F304" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D305" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E305" s="19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F305" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D306" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E306" s="19" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F306" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D307" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E307" s="19" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F307" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D308" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E308" s="19" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F308" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D309" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E309" s="19" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F309" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D310" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E310" s="19" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F310" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D311" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E311" s="19" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F311" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D312" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E312" s="19" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F312" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D313" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E313" s="19" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F313" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D314" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E314" s="19" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F314" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D315" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E315" s="19" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F315" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D316" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E316" s="19" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F316" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D317" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E317" s="19" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F317" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D318" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E318" s="19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F318" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D319" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E319" s="19" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F319" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D320" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E320" s="19" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F320" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D321" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E321" s="19" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F321" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D322" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E322" s="19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F322" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D323" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E323" s="19" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F323" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D324" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E324" s="19" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F324" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D325" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E325" s="19" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F325" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D326" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E326" s="19" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F326" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D327" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F327" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D328" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E328" s="19" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F328" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D329" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E329" s="19" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F329" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D330" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E330" s="19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F330" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D331" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E331" s="19" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F331" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D332" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E332" s="19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F332" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D333" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E333" s="19" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F333" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D334" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E334" s="19" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F334" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D335" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E335" s="19" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F335" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D336" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E336" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F336" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D337" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E337" s="19" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F337" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D338" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E338" s="19" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F338" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D339" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E339" s="19" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F339" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D340" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E340" s="19" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F340" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D341" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E341" s="19" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F341" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D342" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E342" s="19" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F342" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D343" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E343" s="19" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F343" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D344" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F344" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D345" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F345" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D346" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E346" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F346" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D347" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E347" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F347" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D348" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E348" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F348" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D349" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E349" s="24" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F349" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D350" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E350" s="19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F350" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D351" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E351" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F351" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D352" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E352" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F352" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D353" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E353" s="19" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F353" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D354" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E354" s="19" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F354" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D355" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E355" s="19" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F355" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D356" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E356" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F356" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D357" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E357" s="19" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F357" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D358" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E358" s="19" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F358" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D359" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E359" s="19" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F359" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D360" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E360" s="19" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F360" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D361" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E361" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F361" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D362" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E362" s="19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F362" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D364" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E364" s="19" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F364" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D365" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E365" s="19" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F365" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D366" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E366" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F366" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D367" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E367" s="19" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F367" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D368" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E368" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F368" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D369" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E369" s="19" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F369" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D370" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E370" s="19" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F370" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D371" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E371" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F371" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D372" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E372" s="19" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F372" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D373" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E373" s="19" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F373" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D374" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E374" s="19" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F374" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D375" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E375" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F375" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D376" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E376" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="F376" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D377" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E377" s="19" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F377" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D378" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E378" s="19" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F378" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D379" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E379" s="19" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F379" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D380" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E380" s="19" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F380" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D381" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E381" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F381" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D382" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E382" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F382" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D383" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E383" s="19" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F383" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D384" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E384" s="19" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F384" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D385" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E385" s="19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F385" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D386" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E386" s="19" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F386" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D387" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E387" s="19" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F387" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D388" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E388" s="19" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F388" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D389" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E389" s="19" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F389" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D390" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E390" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F390" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D391" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E391" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F391" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D392" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E392" s="19" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F392" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D393" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E393" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F393" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D394" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E394" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F394" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D395" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E395" s="19" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F395" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D396" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E396" s="19" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F396" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D397" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E397" s="19" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F397" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D398" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E398" s="19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F398" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D399" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E399" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F399" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D400" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E400" s="19" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F400" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D401" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E401" s="19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F401" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D402" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E402" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F402" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D403" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E403" s="19" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F403" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D404" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E404" s="19" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F404" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D405" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E405" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F405" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D406" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E406" s="19" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F406" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D407" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E407" s="19" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F407" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D408" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E408" s="19" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F408" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D409" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E409" s="19" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F409" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D410" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E410" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F410" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D411" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E411" s="21" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F411" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D412" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E412" s="19" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F412" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D413" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E413" s="19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F413" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D414" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E414" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F414" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D415" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E415" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F415" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D416" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E416" s="19" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F416" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D417" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E417" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F417" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D418" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E418" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F418" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D419" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E419" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F419" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D420" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E420" s="19" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F420" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D421" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E421" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F421" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D422" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E422" s="19" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F422" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D423" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E423" s="19" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F423" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D424" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E424" s="19" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F424" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D425" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E425" s="19" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F425" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D426" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E426" s="19" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F426" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D427" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E427" s="19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F427" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D428" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E428" s="19" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F428" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D429" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E429" s="19" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F429" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D430" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E430" s="19" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F430" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D431" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E431" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="F431" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D432" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E432" s="19" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F432" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D433" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E433" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F433" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D434" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E434" s="19" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F434" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D435" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E435" s="19" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F435" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D436" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E436" s="19" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F436" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D437" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E437" s="19" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F437" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D438" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E438" s="19" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F438" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D439" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E439" s="19" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F439" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D440" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E440" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F440" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D441" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E441" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F441" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D442" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E442" s="19" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F442" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D443" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E443" s="19" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F443" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D444" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E444" s="19" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F444" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D445" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E445" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F445" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D446" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E446" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F446" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D447" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E447" s="19" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F447" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D448" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E448" s="19" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F448" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D449" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E449" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F449" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D450" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E450" s="19" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F450" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D451" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E451" s="19" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F451" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D452" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E452" s="19" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F452" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D453" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E453" s="19" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F453" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D454" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E454" s="19" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F454" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D455" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E455" s="19" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F455" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D456" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E456" s="19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F456" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D457" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E457" s="19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F457" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D458" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E458" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F458" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D459" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E459" s="19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F459" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D460" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E460" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F460" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D461" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E461" s="19" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F461" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D462" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E462" s="19" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F462" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D463" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E463" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F463" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D464" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E464" s="19" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F464" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D465" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E465" s="19" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F465" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D466" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E466" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F466" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D467" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E467" s="19" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F467" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D468" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E468" s="19" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F468" s="28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H3:H288">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H288">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E288">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E288">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C288">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271:C277">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H290">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H290">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E290:E362">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E290:E362">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C363">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290:C362">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C357:C358">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E364:E468">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E364:E468">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C364:C468">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C271:C277">
+  <conditionalFormatting sqref="C467:C468">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
